--- a/results/I3_N5_M3_T45_C150_DepCentral_s0_P2_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepCentral_s0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>657.0766027149057</v>
+        <v>1318.718352253817</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.006999969482421875</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.77660271490709</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4244997055358226</v>
+        <v>7.908099007898997</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4244997055358226</v>
+        <v>3.568767294178761</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.4399999999986</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>434.8600000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,12 +584,56 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -780,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -824,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -885,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.77588400245558</v>
+        <v>36.72863473297091</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>40.61498263299222</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>32.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.50010794158182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>43.79947631331252</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.34465129663435</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -933,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>33.83692585281499</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>34.49989205841818</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,15 +1031,211 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>145.3950000000002</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.475</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>167.32</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>168.77</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>166.265</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.4</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0650000000008</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.7150000000008</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>125.2100000000008</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>122.6300000000008</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>156.56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>153.25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>161.41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>156.73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>155.9399999999993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.26000000000001</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>77.21999999999952</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>87.34499999999935</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>91.47999999999934</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>91.85999999999933</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>90.41499999999934</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>145.3950000000002</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.475</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>167.32</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>168.77</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>166.265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>122.0650000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>116.7150000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>125.2100000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>122.6300000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>156.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>153.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>161.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>156.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>155.9399999999993</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.47499999999998</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>17.32</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>18.77</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>16.26499999999997</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
@@ -1684,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.560000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1695,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1717,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.72999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1728,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.939999999999344</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1896,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1907,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1918,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1929,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1940,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2053,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2083,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2094,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2105,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2116,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2124,10 +2364,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2135,10 +2375,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2146,10 +2386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2157,10 +2397,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2168,12 +2408,78 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
